--- a/Professional/Graduate School/Applications.xlsx
+++ b/Professional/Graduate School/Applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Desktop\Charlie\Professional\Graduate School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F2E81D-2995-4452-93F7-D78D7AB7B7ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29B46B1-6ABE-4638-9D0B-B73568541451}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>https://www.applyweb.com/caltgapp/index.ftl</t>
-  </si>
-  <si>
-    <t>Application login</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>University of British Columbia</t>
   </si>
@@ -39,18 +33,6 @@
     <t>Massachusetts Institute of Technology</t>
   </si>
   <si>
-    <t>Aeronautics and Astronautics</t>
-  </si>
-  <si>
-    <t>Master of Engineering in Manufacturing - Mechanical Engineering</t>
-  </si>
-  <si>
-    <t>https://gradadmissions.mit.edu/programs/aeroastro</t>
-  </si>
-  <si>
-    <t>https://gradadmissions.mit.edu/programs/meche</t>
-  </si>
-  <si>
     <t>https://apscpp.ubc.ca/programs/mel/advanced-materials-manufacturing/</t>
   </si>
   <si>
@@ -66,43 +48,112 @@
     <t>https://www.nottingham.ac.uk/pgstudy/courses/mechanical-materials-and-manufacturing-engineering/additive-manufacturing-and-3d-printing-msc.aspx</t>
   </si>
   <si>
-    <t>Graduate School</t>
-  </si>
-  <si>
     <t>Graduate Program</t>
   </si>
   <si>
     <t>Link</t>
   </si>
   <si>
-    <t>Penn State</t>
-  </si>
-  <si>
-    <t>Masters of Engineering in Additive Manufacturing and Design</t>
-  </si>
-  <si>
-    <t>https://www.worldcampus.psu.edu/degrees-and-certificates/penn-state-online-additive-manufacturing-and-design-masters-degree/overview</t>
-  </si>
-  <si>
-    <t>Masters in Additive Manufacturing and Advanced Manufacturing Technologies</t>
-  </si>
-  <si>
-    <t>Sheffield University</t>
-  </si>
-  <si>
-    <t>Derby University</t>
-  </si>
-  <si>
-    <t>Masters (MSc) in Advanced Materials and Additive Manufacturing</t>
-  </si>
-  <si>
-    <t>https://www.derby.ac.uk/postgraduate/mechanical-manufacturing-engineering-courses/advanced-materials-and-additive-manufacturing-msc/?utm_source=FindAMasters&amp;utm_campaign=courseid[43013]&amp;utm_medium=courselisting&amp;utm_content=button</t>
-  </si>
-  <si>
-    <t>https://www.sheffield.ac.uk/postgraduate/taught/courses/2019/additive-manufacturing-and-advanced-manufacturing-technologies-mscres</t>
-  </si>
-  <si>
-    <t>(Fulbright)</t>
+    <t>MIT LGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>MIT SoE Master of Engineering in Mechanical Engineering - Manufacturing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost won't be a huge issue as many scholarships are availble </t>
+  </si>
+  <si>
+    <t>https://lgo.mit.edu/curriculum/engineering/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MIT LGO - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Combined 2-Year Program</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for MBA and MoE</t>
+    </r>
+  </si>
+  <si>
+    <t>https://lgo.mit.edu/apply/</t>
+  </si>
+  <si>
+    <t>Paired with Fulbright, best additive program in the world</t>
+  </si>
+  <si>
+    <t>Money will be taken care of through the Fulbright if accepted</t>
+  </si>
+  <si>
+    <t>For January-Start Programs</t>
+  </si>
+  <si>
+    <t>Graduate Schools for Engineering</t>
+  </si>
+  <si>
+    <t>Graduate Schools for Business</t>
+  </si>
+  <si>
+    <t>Graduate Schools for Business/Engineering</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>https://www.gsb.stanford.edu/programs/mba/admission</t>
+  </si>
+  <si>
+    <t>2 Year Full-Time MBA</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Application Start Date</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Nottingham - September</t>
+  </si>
+  <si>
+    <t>Fulbright - Right Now</t>
+  </si>
+  <si>
+    <t>September - If not accepted into LGO, going through engineering application next</t>
+  </si>
+  <si>
+    <t>The summer before the January Start</t>
   </si>
 </sst>
 </file>
@@ -189,10 +240,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -203,6 +253,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -519,150 +575,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
-    <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="103" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="106.33203125" customWidth="1"/>
+    <col min="1" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" customWidth="1"/>
+    <col min="4" max="4" width="68" customWidth="1"/>
+    <col min="5" max="5" width="103" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="106.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="3"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="8"/>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B21:B22"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{59E71660-ECE0-42BD-82C2-632548691094}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{92D15627-EA0C-4677-8A92-64D3D2BFE87F}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{FF0C8921-77D5-4731-82E6-EED8FD0FB5D6}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{A0D26438-4C0B-41D9-A800-9C0B03CAC8F2}"/>
-    <hyperlink ref="C12" r:id="rId5" xr:uid="{CA89B71C-4C57-4059-B7C3-E15185D56C9C}"/>
-    <hyperlink ref="C18" r:id="rId6" display="https://www.derby.ac.uk/postgraduate/mechanical-manufacturing-engineering-courses/advanced-materials-and-additive-manufacturing-msc/?utm_source=FindAMasters&amp;utm_campaign=courseid%5b43013%5d&amp;utm_medium=courselisting&amp;utm_content=button" xr:uid="{DC1079D1-EBC5-4A32-A87F-F71D73DAAFDF}"/>
-    <hyperlink ref="C15" r:id="rId7" xr:uid="{47423869-7197-4168-AF0F-686505F572B1}"/>
+    <hyperlink ref="E29" r:id="rId1" xr:uid="{FF0C8921-77D5-4731-82E6-EED8FD0FB5D6}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{A0D26438-4C0B-41D9-A800-9C0B03CAC8F2}"/>
+    <hyperlink ref="E21" r:id="rId3" xr:uid="{FB20D295-753D-45BD-928F-5321DC827C2F}"/>
+    <hyperlink ref="E22" r:id="rId4" xr:uid="{3105B576-5145-4E70-9081-F6EF1F53085C}"/>
+    <hyperlink ref="E13" r:id="rId5" xr:uid="{A4FAB97D-E11D-4667-8FFC-9ECDC649EF33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>